--- a/Document/개발_스케줄표_ver0.1.xlsx
+++ b/Document/개발_스케줄표_ver0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Projects\이주 노동자 적응도 예측 및 솔루션 제공\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\workspace\spring-workspace\newdawn\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적응도 예측 페이지 UI/UX 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포용도 분석 - 분석 결과 조회 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,11 +137,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적응도 예측 페이지 UI/UX 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적응도 예측 - 적응도 예측 결과 조회 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적응도 예측 - 솔루션 제공 기능 구현</t>
+    <t>적응도 예측 - 맞춤형 솔루션 제공 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,25 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +462,42 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,40 +507,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,7 +818,7 @@
   <dimension ref="A1:BF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,163 +833,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="10">
+      <c r="G1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="42">
         <v>2024</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42">
         <v>8</v>
       </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="2">
         <v>11</v>
       </c>
       <c r="I3" s="2">
         <v>12</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="20">
         <v>13</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="21">
         <v>14</v>
       </c>
       <c r="L3" s="2">
@@ -1007,10 +1007,10 @@
       <c r="P3" s="2">
         <v>19</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="20">
         <v>20</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="21">
         <v>21</v>
       </c>
       <c r="S3" s="2">
@@ -1028,10 +1028,10 @@
       <c r="W3" s="2">
         <v>26</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="20">
         <v>27</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="21">
         <v>28</v>
       </c>
       <c r="Z3" s="2">
@@ -1049,10 +1049,10 @@
       <c r="AD3" s="2">
         <v>2</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="20">
         <v>3</v>
       </c>
-      <c r="AF3" s="27">
+      <c r="AF3" s="21">
         <v>4</v>
       </c>
       <c r="AG3" s="2">
@@ -1070,10 +1070,10 @@
       <c r="AK3" s="2">
         <v>9</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="20">
         <v>10</v>
       </c>
-      <c r="AM3" s="27">
+      <c r="AM3" s="21">
         <v>11</v>
       </c>
       <c r="AN3" s="2">
@@ -1091,10 +1091,10 @@
       <c r="AR3" s="2">
         <v>16</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AS3" s="20">
         <v>17</v>
       </c>
-      <c r="AT3" s="27">
+      <c r="AT3" s="21">
         <v>18</v>
       </c>
       <c r="AU3" s="2">
@@ -1112,10 +1112,10 @@
       <c r="AY3" s="2">
         <v>23</v>
       </c>
-      <c r="AZ3" s="26">
+      <c r="AZ3" s="20">
         <v>24</v>
       </c>
-      <c r="BA3" s="27">
+      <c r="BA3" s="21">
         <v>25</v>
       </c>
       <c r="BB3" s="2">
@@ -1135,10 +1135,10 @@
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
@@ -1159,49 +1159,49 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="28"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="28"/>
+      <c r="Y4" s="22"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="28"/>
+      <c r="AF4" s="22"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="28"/>
+      <c r="AM4" s="22"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
-      <c r="AT4" s="28"/>
+      <c r="AT4" s="22"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
-      <c r="BA4" s="28"/>
+      <c r="BA4" s="22"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
@@ -1209,8 +1209,8 @@
       <c r="BF4" s="1"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -1229,49 +1229,49 @@
       <c r="H5" s="1"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="28"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="28"/>
+      <c r="R5" s="22"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="28"/>
+      <c r="Y5" s="22"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="28"/>
+      <c r="AF5" s="22"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="28"/>
+      <c r="AM5" s="22"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
-      <c r="AT5" s="28"/>
+      <c r="AT5" s="22"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
-      <c r="BA5" s="28"/>
+      <c r="BA5" s="22"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
@@ -1279,8 +1279,8 @@
       <c r="BF5" s="1"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -1305,42 +1305,42 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="28"/>
+      <c r="R6" s="22"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="28"/>
+      <c r="Y6" s="22"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="28"/>
+      <c r="AF6" s="22"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="28"/>
+      <c r="AM6" s="22"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="28"/>
+      <c r="AT6" s="22"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
-      <c r="BA6" s="28"/>
+      <c r="BA6" s="22"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
@@ -1348,8 +1348,8 @@
       <c r="BF6" s="1"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3">
         <v>4</v>
       </c>
@@ -1368,49 +1368,49 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="28"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="28"/>
+      <c r="Y7" s="22"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="28"/>
+      <c r="AF7" s="22"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="28"/>
+      <c r="AM7" s="22"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
-      <c r="AT7" s="28"/>
+      <c r="AT7" s="22"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
-      <c r="BA7" s="28"/>
+      <c r="BA7" s="22"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
@@ -1418,73 +1418,73 @@
       <c r="BF7" s="1"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="24">
         <v>45493</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="24">
         <v>45495</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="22"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="28"/>
+      <c r="Y8" s="22"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="28"/>
+      <c r="AF8" s="22"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="28"/>
+      <c r="AM8" s="22"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="28"/>
+      <c r="AT8" s="22"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="28"/>
+      <c r="BA8" s="22"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
@@ -1492,71 +1492,71 @@
       <c r="BF8" s="1"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="24">
         <v>45496</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="24">
         <v>45499</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="13">
         <v>4</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="28"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="22"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="28"/>
+      <c r="AF9" s="22"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="28"/>
+      <c r="AM9" s="22"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="28"/>
+      <c r="AT9" s="22"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="28"/>
+      <c r="BA9" s="22"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
@@ -1564,71 +1564,71 @@
       <c r="BF9" s="1"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>7</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="24">
         <v>45500</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="24">
         <v>45503</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>3</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="28"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="28"/>
+      <c r="R10" s="22"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="28"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="28"/>
+      <c r="AM10" s="22"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
-      <c r="AT10" s="28"/>
+      <c r="AT10" s="22"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="28"/>
+      <c r="BA10" s="22"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
@@ -1636,71 +1636,71 @@
       <c r="BF10" s="1"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="24">
         <v>45504</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="24">
         <v>45505</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <v>2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="28"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="28"/>
+      <c r="Y11" s="22"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="28"/>
+      <c r="AF11" s="22"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="28"/>
+      <c r="AM11" s="22"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
-      <c r="AT11" s="28"/>
+      <c r="AT11" s="22"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
-      <c r="BA11" s="28"/>
+      <c r="BA11" s="22"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
@@ -1708,291 +1708,286 @@
       <c r="BF11" s="1"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="14">
         <v>9</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="25">
         <v>45491</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="25">
         <v>45492</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="R12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="BA12" s="29"/>
+      <c r="K12" s="23"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="R12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="BA12" s="23"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="14">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="25">
         <v>45506</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="25">
         <v>45509</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <v>3</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="Y13" s="29"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="18"/>
-      <c r="AM13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="BA13" s="29"/>
+      <c r="K13" s="23"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="Y13" s="23"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="12"/>
+      <c r="AM13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="BA13" s="23"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="14">
         <v>11</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="25">
         <v>45510</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="25">
         <v>45512</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="14">
         <v>3</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="Y14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AM14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="BA14" s="29"/>
+      <c r="K14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AM14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="BA14" s="23"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="35">
+      <c r="B15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="26">
         <v>12</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="34">
         <v>45513</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="34">
         <v>45514</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="26">
         <v>2</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="29"/>
-      <c r="AT15" s="29"/>
-      <c r="BA15" s="29"/>
+      <c r="K15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="BA15" s="23"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="26">
         <v>13</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="44">
+      <c r="D16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="34">
         <v>45516</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="34">
         <v>45516</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="39"/>
-      <c r="AT16" s="29"/>
-      <c r="BA16" s="29"/>
+      <c r="K16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="29"/>
+      <c r="AT16" s="23"/>
+      <c r="BA16" s="23"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="26">
         <v>14</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="44">
+      <c r="D17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="34">
         <v>45517</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="34">
         <v>45517</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AO17" s="41"/>
-      <c r="AT17" s="29"/>
-      <c r="BA17" s="29"/>
+      <c r="K17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AO17" s="31"/>
+      <c r="AT17" s="23"/>
+      <c r="BA17" s="23"/>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="26">
         <v>15</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="44">
+      <c r="D18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="34">
         <v>45518</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="34">
         <v>45518</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AP18" s="42"/>
-      <c r="AT18" s="29"/>
-      <c r="BA18" s="29"/>
+      <c r="K18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AP18" s="32"/>
+      <c r="AT18" s="23"/>
+      <c r="BA18" s="23"/>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="26">
         <v>16</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="34">
         <v>45519</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="34">
         <v>45520</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AT19" s="29"/>
-      <c r="BA19" s="29"/>
+      <c r="K19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AT19" s="23"/>
+      <c r="BA19" s="23"/>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="26">
         <v>17</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="34">
         <v>45521</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="34">
         <v>45523</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="26">
         <v>2</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="40"/>
-      <c r="BA20" s="29"/>
+      <c r="K20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="30"/>
+      <c r="BA20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:BF1"/>
     <mergeCell ref="H2:AB2"/>
     <mergeCell ref="AC2:BF2"/>
@@ -2003,6 +1998,11 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
